--- a/medicine/Enfance/Michelle_Montmoulineix/Michelle_Montmoulineix.xlsx
+++ b/medicine/Enfance/Michelle_Montmoulineix/Michelle_Montmoulineix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michelle Montmoulineix est une auteure de livres pour la jeunesse française, née à Paris.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle vit dans la Brenne depuis la fin des années 1990. Elle écrit principalement des textes courts[1],[2].
-En 2017 est publié Baleine rouge, qui, selon Michel Abescat, dans son avis critique de Télérama, est un « ambitieux roman aux accents écologiques et philosophiques[3]. »
-Son roman pour ados Le Temps des ogres, publié en 2023, est selon l'avis de Télérama « une saisissante dystopie dans une vallée où la pluie ne tombe plus. [...] Michelle Montmoulineix signe un roman apocalyptique d’une frappante beauté. »[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit dans la Brenne depuis la fin des années 1990. Elle écrit principalement des textes courts,.
+En 2017 est publié Baleine rouge, qui, selon Michel Abescat, dans son avis critique de Télérama, est un « ambitieux roman aux accents écologiques et philosophiques. »
+Son roman pour ados Le Temps des ogres, publié en 2023, est selon l'avis de Télérama « une saisissante dystopie dans une vallée où la pluie ne tombe plus. [...] Michelle Montmoulineix signe un roman apocalyptique d’une frappante beauté. »
 </t>
         </is>
       </c>
@@ -544,15 +558,17 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a écrit plusieurs livres[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Elle a écrit plusieurs livres.
 Le noyau de Pierre, illustrations de Christophe Blain, Albin Michel jeunesse, 1995
 Le roi de la rivière, illustrations de Christian Heinrich, Albin Michel, 2000
 Polaroïds, Éditions la Bouinotte, 2013
 Les bestioles, illustrée par Mélanie Allag, Bayard jeunesse, 2013
-Baleine rouge[3], Hélium, 2017
-Le temps des ogres[4], Hélium, 2023</t>
+Baleine rouge, Hélium, 2017
+Le temps des ogres, Hélium, 2023</t>
         </is>
       </c>
     </row>
